--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_236__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_236__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,10 +5417,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>22.59279441833496</c:v>
+                  <c:v>22.59279823303223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.59041023254395</c:v>
+                  <c:v>14.59041213989258</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>69.81418609619141</c:v>
@@ -5429,16 +5429,16 @@
                   <c:v>64.58527374267578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.34159088134766</c:v>
+                  <c:v>93.34157562255859</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32.01956939697266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.2294790148735046</c:v>
+                  <c:v>-0.2294782847166061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.8546684980392456</c:v>
+                  <c:v>-0.8546640872955322</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>87.39109039306641</c:v>
@@ -5450,28 +5450,28 @@
                   <c:v>93.73126220703125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.881571650505066</c:v>
+                  <c:v>1.881568789482117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.002182841300964</c:v>
+                  <c:v>1.002178430557251</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.29931640625</c:v>
+                  <c:v>86.29930877685547</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>92.09177398681641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.99240875244141</c:v>
+                  <c:v>75.99241638183594</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.77679347991943</c:v>
+                  <c:v>10.77679443359375</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>95.80667114257812</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.172998428344727</c:v>
+                  <c:v>-1.172999858856201</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>95.31752014160156</c:v>
@@ -5483,73 +5483,73 @@
                   <c:v>90.95068359375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.061931729316711</c:v>
+                  <c:v>-1.06192946434021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.7046261429786682</c:v>
+                  <c:v>-0.7046225070953369</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7716227769851685</c:v>
+                  <c:v>0.7716197967529297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.8183881044387817</c:v>
+                  <c:v>-0.8183895945549011</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5568615198135376</c:v>
+                  <c:v>0.5568629503250122</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.8541508316993713</c:v>
+                  <c:v>-0.8541479110717773</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>83.51825714111328</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.029042363166809</c:v>
+                  <c:v>-1.029045343399048</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>93.98829650878906</c:v>
+                  <c:v>93.98830413818359</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>92.57411956787109</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.8812298774719238</c:v>
+                  <c:v>-0.8812313675880432</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87.25691223144531</c:v>
+                  <c:v>87.25692749023438</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.68951034545898</c:v>
+                  <c:v>21.68950843811035</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>93.25572967529297</c:v>
+                  <c:v>93.2557373046875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.334188461303711</c:v>
+                  <c:v>-1.334192156791687</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>88.76358032226562</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72.82266235351562</c:v>
+                  <c:v>72.82266998291016</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.80069255828857</c:v>
+                  <c:v>13.80068588256836</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92.77182769775391</c:v>
+                  <c:v>92.77183532714844</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.6402769684791565</c:v>
+                  <c:v>-0.6402747631072998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>88.80915832519531</c:v>
+                  <c:v>88.80916595458984</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>91.68902587890625</c:v>
+                  <c:v>91.68901824951172</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.001670241355896</c:v>
+                  <c:v>-1.001665830612183</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.881905198097229</c:v>
@@ -5558,70 +5558,70 @@
                   <c:v>96.13071441650391</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.213387250900269</c:v>
+                  <c:v>-1.213387966156006</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.08587658405304</c:v>
+                  <c:v>-1.085875868797302</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>92.38597869873047</c:v>
+                  <c:v>92.385986328125</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>85.59925842285156</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.070252299308777</c:v>
+                  <c:v>-1.07025158405304</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>92.8970947265625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>94.0836181640625</c:v>
+                  <c:v>94.08362579345703</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>93.51460266113281</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.024857401847839</c:v>
+                  <c:v>-1.024863362312317</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>94.61824035644531</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87.98750305175781</c:v>
+                  <c:v>87.98749542236328</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.3229876160621643</c:v>
+                  <c:v>-0.322986900806427</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>90.85951232910156</c:v>
+                  <c:v>90.85951995849609</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.577468752861023</c:v>
+                  <c:v>-1.577472448348999</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-0.5711595416069031</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.153212547302246</c:v>
+                  <c:v>7.15321683883667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.4739468097686768</c:v>
+                  <c:v>-0.4739527106285095</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>93.8310546875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.4982054233551025</c:v>
+                  <c:v>-0.4982113242149353</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25.93852996826172</c:v>
+                  <c:v>25.93851852416992</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.9235702157020569</c:v>
+                  <c:v>-0.9235643148422241</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>94.52615356445312</c:v>
+                  <c:v>94.52613830566406</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>95.74231719970703</c:v>
@@ -5630,31 +5630,31 @@
                   <c:v>95.90603637695312</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>88.03947448730469</c:v>
+                  <c:v>88.03946685791016</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>95.01738739013672</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.03251314163208</c:v>
+                  <c:v>-1.032516002655029</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>95.36300659179688</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>96.27518463134766</c:v>
+                  <c:v>96.27519226074219</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>86.79511260986328</c:v>
+                  <c:v>86.79512023925781</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>87.97225952148438</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.499773234128952</c:v>
+                  <c:v>-0.4997739791870117</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20.82109260559082</c:v>
+                  <c:v>20.82108879089355</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>91.82943725585938</c:v>
@@ -5663,25 +5663,25 @@
                   <c:v>66.77660369873047</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.9248942136764526</c:v>
+                  <c:v>-0.9248934984207153</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.7965500354766846</c:v>
+                  <c:v>0.7965478301048279</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>93.745361328125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.7479731440544128</c:v>
+                  <c:v>-0.7479760646820068</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.8498023748397827</c:v>
+                  <c:v>-0.8498038649559021</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>95.03926849365234</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.9681012630462646</c:v>
+                  <c:v>-0.9681049585342407</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>88.74375152587891</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.59279441833496</v>
+        <v>22.59279823303223</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.59041023254395</v>
+        <v>14.59041213989258</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>93.34159088134766</v>
+        <v>93.34157562255859</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2294790148735046</v>
+        <v>-0.2294782847166061</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.8546684980392456</v>
+        <v>-0.8546640872955322</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.881571650505066</v>
+        <v>1.881568789482117</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.002182841300964</v>
+        <v>1.002178430557251</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>86.29931640625</v>
+        <v>86.29930877685547</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>75.99240875244141</v>
+        <v>75.99241638183594</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>10.77679347991943</v>
+        <v>10.77679443359375</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-1.172998428344727</v>
+        <v>-1.172999858856201</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-1.061931729316711</v>
+        <v>-1.06192946434021</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.7046261429786682</v>
+        <v>-0.7046225070953369</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.7716227769851685</v>
+        <v>0.7716197967529297</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.8183881044387817</v>
+        <v>-0.8183895945549011</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.5568615198135376</v>
+        <v>0.5568629503250122</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.8541508316993713</v>
+        <v>-0.8541479110717773</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-1.029042363166809</v>
+        <v>-1.029045343399048</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>93.98829650878906</v>
+        <v>93.98830413818359</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.8812298774719238</v>
+        <v>-0.8812313675880432</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>87.25691223144531</v>
+        <v>87.25692749023438</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>21.68951034545898</v>
+        <v>21.68950843811035</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>93.25572967529297</v>
+        <v>93.2557373046875</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-1.334188461303711</v>
+        <v>-1.334192156791687</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>72.82266235351562</v>
+        <v>72.82266998291016</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>13.80069255828857</v>
+        <v>13.80068588256836</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>92.77182769775391</v>
+        <v>92.77183532714844</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.6402769684791565</v>
+        <v>-0.6402747631072998</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>88.80915832519531</v>
+        <v>88.80916595458984</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>91.68902587890625</v>
+        <v>91.68901824951172</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-1.001670241355896</v>
+        <v>-1.001665830612183</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-1.213387250900269</v>
+        <v>-1.213387966156006</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-1.08587658405304</v>
+        <v>-1.085875868797302</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>92.38597869873047</v>
+        <v>92.385986328125</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-1.070252299308777</v>
+        <v>-1.07025158405304</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>94.0836181640625</v>
+        <v>94.08362579345703</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-1.024857401847839</v>
+        <v>-1.024863362312317</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>87.98750305175781</v>
+        <v>87.98749542236328</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.3229876160621643</v>
+        <v>-0.322986900806427</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>90.85951232910156</v>
+        <v>90.85951995849609</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.577468752861023</v>
+        <v>-1.577472448348999</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>7.153212547302246</v>
+        <v>7.15321683883667</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.4739468097686768</v>
+        <v>-0.4739527106285095</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.4982054233551025</v>
+        <v>-0.4982113242149353</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>25.93852996826172</v>
+        <v>25.93851852416992</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.9235702157020569</v>
+        <v>-0.9235643148422241</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>94.52615356445312</v>
+        <v>94.52613830566406</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>88.03947448730469</v>
+        <v>88.03946685791016</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-1.03251314163208</v>
+        <v>-1.032516002655029</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>96.27518463134766</v>
+        <v>96.27519226074219</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>86.79511260986328</v>
+        <v>86.79512023925781</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.499773234128952</v>
+        <v>-0.4997739791870117</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>20.82109260559082</v>
+        <v>20.82108879089355</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.9248942136764526</v>
+        <v>-0.9248934984207153</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.7965500354766846</v>
+        <v>0.7965478301048279</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.7479731440544128</v>
+        <v>-0.7479760646820068</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.8498023748397827</v>
+        <v>-0.8498038649559021</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.9681012630462646</v>
+        <v>-0.9681049585342407</v>
       </c>
     </row>
     <row r="91" spans="1:6">
